--- a/data/HR1/A_BJ_35_2/A_BJ_35_2_base.xlsx
+++ b/data/HR1/A_BJ_35_2/A_BJ_35_2_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C0ABF2-F9C1-411F-BE8C-F3BD5DB7CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDCFF6-1F18-44EE-865D-77AE1A9CD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1950" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -907,7 +907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -15653,7 +15653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28969ACD-2F33-4CBF-9D87-EF370182A0DF}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/A_BJ_35_2/A_BJ_35_2_base.xlsx
+++ b/data/HR1/A_BJ_35_2/A_BJ_35_2_base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEDCFF6-1F18-44EE-865D-77AE1A9CD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FBA72-5E2B-40CA-9B82-D097A6BBD9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,7 +918,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
